--- a/Daily/Forecast/Stationaritiy/Square Percentage Return/fast_retailing.xlsx
+++ b/Daily/Forecast/Stationaritiy/Square Percentage Return/fast_retailing.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-1.623039147284564</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-84.31379446650121</v>
+        <v>-82.75295133327188</v>
       </c>
       <c r="E2">
-        <v>81.06771617193209</v>
+        <v>82.75295133327188</v>
       </c>
       <c r="F2">
         <v>-30.17561418716781</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>1.486903286913801</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-81.19517554830847</v>
+        <v>-82.74511773680483</v>
       </c>
       <c r="E3">
-        <v>84.16898212213607</v>
+        <v>82.74511773680483</v>
       </c>
       <c r="F3">
         <v>19.40292780923869</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-1.053362311682299</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-83.72233043503104</v>
+        <v>-82.73249267074137</v>
       </c>
       <c r="E4">
-        <v>81.61560581166646</v>
+        <v>82.73249267074137</v>
       </c>
       <c r="F4">
         <v>10.77268637792912</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.1860614874026005</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-82.84030096610145</v>
+        <v>-82.71753698950862</v>
       </c>
       <c r="E5">
-        <v>82.46817799129626</v>
+        <v>82.71753698950862</v>
       </c>
       <c r="F5">
         <v>-17.60229640862576</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.7072121950308934</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-81.93377629495144</v>
+        <v>-82.70432994591994</v>
       </c>
       <c r="E6">
-        <v>83.34820068501323</v>
+        <v>82.70432994591994</v>
       </c>
       <c r="F6">
         <v>-50.70696218031827</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>1.764684414914473</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-80.88407596854802</v>
+        <v>-82.71142531843901</v>
       </c>
       <c r="E7">
-        <v>84.41344479837696</v>
+        <v>82.71142531843901</v>
       </c>
       <c r="F7">
         <v>-13.43764040006619</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.1326443687349377</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-82.50222656618678</v>
+        <v>-82.69707013389581</v>
       </c>
       <c r="E8">
-        <v>82.76751530365667</v>
+        <v>82.69707013389581</v>
       </c>
       <c r="F8">
         <v>-2.344951807336315</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.06004298625135995</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-82.5589287415485</v>
+        <v>-82.68115322960932</v>
       </c>
       <c r="E9">
-        <v>82.67901471405122</v>
+        <v>82.68115322960932</v>
       </c>
       <c r="F9">
         <v>33.77189624361847</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>-1.283337794720032</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-83.89656350219803</v>
+        <v>-82.67542389238967</v>
       </c>
       <c r="E10">
-        <v>81.32988791275798</v>
+        <v>82.67542389238967</v>
       </c>
       <c r="F10">
         <v>-10.42841449512082</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.6641186537828274</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-81.93391976506432</v>
+        <v>-82.66044912640743</v>
       </c>
       <c r="E11">
-        <v>83.26215707262996</v>
+        <v>82.66044912640743</v>
       </c>
       <c r="F11">
         <v>32.86387920423124</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-1.383294645897591</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-83.97470164726336</v>
+        <v>-82.65418849153804</v>
       </c>
       <c r="E12">
-        <v>81.20811235546817</v>
+        <v>82.65418849153804</v>
       </c>
       <c r="F12">
         <v>9.712152433516508</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>-0.07186706550395217</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-82.64845689162408</v>
+        <v>-82.63910035444769</v>
       </c>
       <c r="E13">
-        <v>82.50472276061618</v>
+        <v>82.63910035444769</v>
       </c>
       <c r="F13">
         <v>-14.87036353756821</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.5758747867323391</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-81.98676668744123</v>
+        <v>-82.62515704833163</v>
       </c>
       <c r="E14">
-        <v>83.13851626090592</v>
+        <v>82.62515704833163</v>
       </c>
       <c r="F14">
         <v>-53.98367958114534</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>1.900797513658718</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-80.67261581391882</v>
+        <v>-82.63533945711595</v>
       </c>
       <c r="E15">
-        <v>84.47421084123626</v>
+        <v>82.63533945711595</v>
       </c>
       <c r="F15">
         <v>-51.66515300953449</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>1.503452796281909</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-81.07974924914799</v>
+        <v>-82.64332060504047</v>
       </c>
       <c r="E16">
-        <v>84.08665484171181</v>
+        <v>82.64332060504047</v>
       </c>
       <c r="F16">
         <v>-16.27143354733249</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.2728106472629106</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-82.29732266896235</v>
+        <v>-82.6297828887665</v>
       </c>
       <c r="E17">
-        <v>82.84294396348818</v>
+        <v>82.6297828887665</v>
       </c>
       <c r="F17">
         <v>5.436545386281466</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.2593648423152393</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-82.81385068995678</v>
+        <v>-82.61414930658025</v>
       </c>
       <c r="E18">
-        <v>82.29512100532631</v>
+        <v>82.61414930658025</v>
       </c>
       <c r="F18">
         <v>-1.207016698772634</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.1007228564517748</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-82.4378936183618</v>
+        <v>-82.59827347285301</v>
       </c>
       <c r="E19">
-        <v>82.63933933126536</v>
+        <v>82.59827347285301</v>
       </c>
       <c r="F19">
         <v>13.84279431092068</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.5301528636652435</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-83.05459087092552</v>
+        <v>-82.58410732228668</v>
       </c>
       <c r="E20">
-        <v>81.99428514359502</v>
+        <v>82.58410732228668</v>
       </c>
       <c r="F20">
         <v>35.1356122910218</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>-1.173387718854719</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-83.69334656868905</v>
+        <v>-82.57927285659558</v>
       </c>
       <c r="E21">
-        <v>81.34657113097963</v>
+        <v>82.57927285659558</v>
       </c>
       <c r="F21">
         <v>-44.15411631689068</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>1.886806801793991</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-80.63381756793765</v>
+        <v>-82.58083176542115</v>
       </c>
       <c r="E22">
-        <v>84.40743117152564</v>
+        <v>82.58083176542115</v>
       </c>
       <c r="F22">
         <v>-27.26856904373278</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.5962427000148303</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-81.91613148916953</v>
+        <v>-82.57161652923428</v>
       </c>
       <c r="E23">
-        <v>83.10861688919918</v>
+        <v>82.57161652923428</v>
       </c>
       <c r="F23">
         <v>29.07508579960734</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-1.198499782542021</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-83.70228257910138</v>
+        <v>-82.5633163675125</v>
       </c>
       <c r="E24">
-        <v>81.30528301401735</v>
+        <v>82.5633163675125</v>
       </c>
       <c r="F24">
         <v>-35.17872780132052</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>1.558175205941527</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-80.94009083463386</v>
+        <v>-82.55852315247822</v>
       </c>
       <c r="E25">
-        <v>84.05644124651691</v>
+        <v>82.55852315247822</v>
       </c>
       <c r="F25">
         <v>-18.40835250222881</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.3516012013839243</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-82.13440100321016</v>
+        <v>-82.54571233929353</v>
       </c>
       <c r="E26">
-        <v>82.83760340597802</v>
+        <v>82.54571233929353</v>
       </c>
       <c r="F26">
         <v>46.95627326262297</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>-1.812103516774517</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-84.30168349175476</v>
+        <v>-82.54955961808486</v>
       </c>
       <c r="E27">
-        <v>80.67747645820573</v>
+        <v>82.54955961808486</v>
       </c>
       <c r="F27">
         <v>-26.71513359393458</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>1.371476552243738</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-81.10782660079157</v>
+        <v>-82.540104064</v>
       </c>
       <c r="E28">
-        <v>83.85077970527904</v>
+        <v>82.540104064</v>
       </c>
       <c r="F28">
         <v>3.051416342084678</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.3967933114509473</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-82.86031941685935</v>
+        <v>-82.52437330391322</v>
       </c>
       <c r="E29">
-        <v>82.06673279395746</v>
+        <v>82.52437330391322</v>
       </c>
       <c r="F29">
         <v>40.50488156426582</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-1.423505955328011</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-83.88616419746403</v>
+        <v>-82.5231954841633</v>
       </c>
       <c r="E30">
-        <v>81.039152286808</v>
+        <v>82.5231954841633</v>
       </c>
       <c r="F30">
         <v>-2.398384984942936</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.380236035398825</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-82.06664377486348</v>
+        <v>-82.5074483044376</v>
       </c>
       <c r="E31">
-        <v>82.82711584566113</v>
+        <v>82.5074483044376</v>
       </c>
       <c r="F31">
         <v>41.02777181222308</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>-1.60543889098278</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-84.05127171507273</v>
+        <v>-82.50665745940488</v>
       </c>
       <c r="E32">
-        <v>80.84039393310717</v>
+        <v>82.50665745940488</v>
       </c>
       <c r="F32">
         <v>21.70469146382032</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>-0.4744703933109991</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-82.90937457079363</v>
+        <v>-82.49507056623865</v>
       </c>
       <c r="E33">
-        <v>81.96043378417164</v>
+        <v>82.49507056623865</v>
       </c>
       <c r="F33">
         <v>-83.21979841450258</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>3.201113811401456</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-79.27901277740501</v>
+        <v>-82.54094895240695</v>
       </c>
       <c r="E34">
-        <v>85.68124040020793</v>
+        <v>82.54094895240695</v>
       </c>
       <c r="F34">
         <v>-23.72603178636155</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.2416753255714346</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-82.2291334126119</v>
+        <v>-82.53017962311317</v>
       </c>
       <c r="E35">
-        <v>82.71248406375477</v>
+        <v>82.53017962311317</v>
       </c>
       <c r="F35">
         <v>-6.736266676857383</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.2000445704895166</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-82.25543903989613</v>
+        <v>-82.51481365964905</v>
       </c>
       <c r="E36">
-        <v>82.65552818087515</v>
+        <v>82.51481365964905</v>
       </c>
       <c r="F36">
         <v>-14.76591332563117</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.503650970873653</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-81.93807676196799</v>
+        <v>-82.50099202838179</v>
       </c>
       <c r="E37">
-        <v>82.94537870371529</v>
+        <v>82.50099202838179</v>
       </c>
       <c r="F37">
         <v>9.854433117645556</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.4639642617335775</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-82.89072924884488</v>
+        <v>-82.48610348738498</v>
       </c>
       <c r="E38">
-        <v>81.96280072537772</v>
+        <v>82.48610348738498</v>
       </c>
       <c r="F38">
         <v>-4.306136571362629</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.2516747527981397</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-82.15948971136747</v>
+        <v>-82.47052520053272</v>
       </c>
       <c r="E39">
-        <v>82.66283921696375</v>
+        <v>82.47052520053272</v>
       </c>
       <c r="F39">
         <v>37.86346155207809</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-1.446989435477135</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-83.85501181514633</v>
+        <v>-82.46753213653521</v>
       </c>
       <c r="E40">
-        <v>80.96103294419206</v>
+        <v>82.46753213653521</v>
       </c>
       <c r="F40">
         <v>-55.7892974839163</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>2.378336442717599</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-80.04021235084906</v>
+        <v>-82.4794534889824</v>
       </c>
       <c r="E41">
-        <v>84.79688523628425</v>
+        <v>82.4794534889824</v>
       </c>
       <c r="F41">
         <v>35.10238622499742</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-1.812000255016893</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-84.22434343246819</v>
+        <v>-82.47467084917373</v>
       </c>
       <c r="E42">
-        <v>80.60034292243439</v>
+        <v>82.47467084917373</v>
       </c>
       <c r="F42">
         <v>-39.4502694486647</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>1.880684239656841</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-80.52852762471639</v>
+        <v>-82.47276868657067</v>
       </c>
       <c r="E43">
-        <v>84.28989610403008</v>
+        <v>82.47276868657067</v>
       </c>
       <c r="F43">
         <v>-31.29720204045725</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.8058139298264546</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-81.59747025532147</v>
+        <v>-82.46574995976462</v>
       </c>
       <c r="E44">
-        <v>83.20909811497438</v>
+        <v>82.46574995976462</v>
       </c>
       <c r="F44">
         <v>-24.07368260515454</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>0.7429715091132181</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-81.6501129778913</v>
+        <v>-82.45518792629474</v>
       </c>
       <c r="E45">
-        <v>83.13605599611773</v>
+        <v>82.45518792629474</v>
       </c>
       <c r="F45">
         <v>27.22260899249704</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>-1.181273806208382</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-83.56489782749735</v>
+        <v>-82.44606511459571</v>
       </c>
       <c r="E46">
-        <v>81.20235021508059</v>
+        <v>82.44606511459571</v>
       </c>
       <c r="F46">
         <v>-5.040351618161765</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.4332614651839272</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-81.93481892943002</v>
+        <v>-82.43060280002371</v>
       </c>
       <c r="E47">
-        <v>82.80134185979789</v>
+        <v>82.43060280002371</v>
       </c>
       <c r="F47">
         <v>16.34096601723627</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.7076579548657742</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-83.06231607573663</v>
+        <v>-82.41729133057473</v>
       </c>
       <c r="E48">
-        <v>81.64700016600507</v>
+        <v>82.41729133057473</v>
       </c>
       <c r="F48">
         <v>21.19554447770753</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.6548516927262327</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-82.99810665614811</v>
+        <v>-82.40560286136282</v>
       </c>
       <c r="E49">
-        <v>81.68840327069563</v>
+        <v>82.40560286136282</v>
       </c>
       <c r="F49">
         <v>-64.18100190807507</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>2.573037144262567</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-79.79034394818666</v>
+        <v>-82.42643338892935</v>
       </c>
       <c r="E50">
-        <v>84.9364182367118</v>
+        <v>82.42643338892935</v>
       </c>
       <c r="F50">
         <v>32.9432087411405</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>-1.790266049161572</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-84.14616510189398</v>
+        <v>-82.42038328167547</v>
       </c>
       <c r="E51">
-        <v>80.56563300357084</v>
+        <v>82.42038328167547</v>
       </c>
       <c r="F51">
         <v>8.789359457240664</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>0.02209207930498946</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-82.3191584088991</v>
+        <v>-82.40541427298146</v>
       </c>
       <c r="E52">
-        <v>82.36334256750906</v>
+        <v>82.40541427298146</v>
       </c>
       <c r="F52">
         <v>-13.19665155443062</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.5019836322772964</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-81.82518296771373</v>
+        <v>-82.3913115546728</v>
       </c>
       <c r="E53">
-        <v>82.82915023226833</v>
+        <v>82.3913115546728</v>
       </c>
       <c r="F53">
         <v>28.80901057120298</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>-1.207376007024853</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-83.52601516609995</v>
+        <v>-82.38302016778162</v>
       </c>
       <c r="E54">
-        <v>81.11126315205026</v>
+        <v>82.38302016778162</v>
       </c>
       <c r="F54">
         <v>-9.354715626797372</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.6011149535365226</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-81.70249594253809</v>
+        <v>-82.3681663417282</v>
       </c>
       <c r="E55">
-        <v>82.90472584961114</v>
+        <v>82.3681663417282</v>
       </c>
       <c r="F55">
         <v>31.65236383118639</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>-1.34191085654825</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-83.63844744012869</v>
+        <v>-82.36140810587993</v>
       </c>
       <c r="E56">
-        <v>80.95462572703218</v>
+        <v>82.36140810587993</v>
       </c>
       <c r="F56">
         <v>-0.6164770866632807</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.2934142655341583</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-81.9875272215139</v>
+        <v>-82.34579940894209</v>
       </c>
       <c r="E57">
-        <v>82.57435575258221</v>
+        <v>82.34579940894209</v>
       </c>
       <c r="F57">
         <v>17.19940782335243</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.7229609193444992</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-82.99083946994163</v>
+        <v>-82.33281141830199</v>
       </c>
       <c r="E58">
-        <v>81.54491763125263</v>
+        <v>82.33281141830199</v>
       </c>
       <c r="F58">
         <v>2.446629490759733</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>0.05162180059178678</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-82.20076310697119</v>
+        <v>-82.31726951418578</v>
       </c>
       <c r="E59">
-        <v>82.30400670815477</v>
+        <v>82.31726951418578</v>
       </c>
       <c r="F59">
         <v>-26.43818088742051</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>1.009241315300682</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-81.23377588278422</v>
+        <v>-82.30786018395118</v>
       </c>
       <c r="E60">
-        <v>83.25225851338558</v>
+        <v>82.30786018395118</v>
       </c>
       <c r="F60">
         <v>-9.915327406663721</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.1789962827355058</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-82.04950988060824</v>
+        <v>-82.29315046490278</v>
       </c>
       <c r="E61">
-        <v>82.40750244607926</v>
+        <v>82.29315046490278</v>
       </c>
       <c r="F61">
         <v>24.09434705836873</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.9644839468275679</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-83.18248877474973</v>
+        <v>-82.2827085314284</v>
       </c>
       <c r="E62">
-        <v>81.25352088109459</v>
+        <v>82.2827085314284</v>
       </c>
       <c r="F62">
         <v>10.42443222938942</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.2083145818962011</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-82.41191606481618</v>
+        <v>-82.26810640366392</v>
       </c>
       <c r="E63">
-        <v>81.99528690102377</v>
+        <v>82.26810640366392</v>
       </c>
       <c r="F63">
         <v>60.98192492488437</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>-2.299082167968789</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-84.52021659452795</v>
+        <v>-82.28537966347085</v>
       </c>
       <c r="E64">
-        <v>79.92205225859037</v>
+        <v>82.28537966347085</v>
       </c>
       <c r="F64">
         <v>1.786980483842626</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.3975902274922792</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-81.8081530527917</v>
+        <v>-82.26985735731893</v>
       </c>
       <c r="E65">
-        <v>82.60333350777624</v>
+        <v>82.26985735731893</v>
       </c>
       <c r="F65">
         <v>-25.14419611499932</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.8848431329916924</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-81.31113041890221</v>
+        <v>-82.25989306286284</v>
       </c>
       <c r="E66">
-        <v>83.08081668488559</v>
+        <v>82.25989306286284</v>
       </c>
       <c r="F66">
         <v>-2.409002801674376</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.08533752751461365</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-82.26588472876045</v>
+        <v>-82.24441032280303</v>
       </c>
       <c r="E67">
-        <v>82.09520967373123</v>
+        <v>82.24441032280303</v>
       </c>
       <c r="F67">
         <v>-23.01162584058574</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.8968509073851951</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-81.27282119298356</v>
+        <v>-82.2335545538003</v>
       </c>
       <c r="E68">
-        <v>83.06652300775396</v>
+        <v>82.2335545538003</v>
       </c>
       <c r="F68">
         <v>-18.33039642845478</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.519582127888325</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-81.63784653431934</v>
+        <v>-82.22099946120723</v>
       </c>
       <c r="E69">
-        <v>82.67701079009599</v>
+        <v>82.22099946120723</v>
       </c>
       <c r="F69">
         <v>-1.227216716903001</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.0578329330172736</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-82.19979145233415</v>
+        <v>-82.20550372866113</v>
       </c>
       <c r="E70">
-        <v>82.08412558629959</v>
+        <v>82.20550372866113</v>
       </c>
       <c r="F70">
         <v>-20.96317270702315</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.8123889528167725</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-81.31793527060229</v>
+        <v>-82.19387600992032</v>
       </c>
       <c r="E71">
-        <v>82.94271317623584</v>
+        <v>82.19387600992032</v>
       </c>
       <c r="F71">
         <v>-31.80651623313366</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>1.047015067996391</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-81.07720887983425</v>
+        <v>-82.18729623455053</v>
       </c>
       <c r="E72">
-        <v>83.17123901582704</v>
+        <v>82.18729623455053</v>
       </c>
       <c r="F72">
         <v>-39.26792622449113</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>1.27338215526221</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-80.84968946927647</v>
+        <v>-82.18539106800046</v>
       </c>
       <c r="E73">
-        <v>83.39645377980089</v>
+        <v>82.18539106800046</v>
       </c>
       <c r="F73">
         <v>3.829548772496594</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.4043453615548734</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-82.51200740711079</v>
+        <v>-82.17004125738779</v>
       </c>
       <c r="E74">
-        <v>81.70331668400104</v>
+        <v>82.17004125738779</v>
       </c>
       <c r="F74">
         <v>-7.665486456063775</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.3726919869791292</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-81.71997586626865</v>
+        <v>-82.15508829322989</v>
       </c>
       <c r="E75">
-        <v>82.46535984022692</v>
+        <v>82.15508829322989</v>
       </c>
       <c r="F75">
         <v>-31.56883028536726</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>1.117727191809937</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-80.96847684829692</v>
+        <v>-82.14839736392055</v>
       </c>
       <c r="E76">
-        <v>83.20393123191678</v>
+        <v>82.14839736392055</v>
       </c>
       <c r="F76">
         <v>-40.57665360877252</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>1.291990031369165</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-80.79407258965294</v>
+        <v>-82.14742804496402</v>
       </c>
       <c r="E77">
-        <v>83.37805265239128</v>
+        <v>82.14742804496402</v>
       </c>
       <c r="F77">
         <v>25.60763140043321</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-1.230522303037997</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-83.30634966079266</v>
+        <v>-82.13774687316106</v>
       </c>
       <c r="E78">
-        <v>80.84530505471666</v>
+        <v>82.13774687316106</v>
       </c>
       <c r="F78">
         <v>-13.09639547372115</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.7458025129597172</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-81.315834024979</v>
+        <v>-82.1238141263</v>
       </c>
       <c r="E79">
-        <v>82.80743905089842</v>
+        <v>82.1238141263</v>
       </c>
       <c r="F79">
         <v>73.0321270219946</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>-2.934840561634122</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-85.02700550999998</v>
+        <v>-82.15525801348149</v>
       </c>
       <c r="E80">
-        <v>79.15732438673174</v>
+        <v>82.15525801348149</v>
       </c>
       <c r="F80">
         <v>41.60684178821725</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>-0.9581844521493306</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-83.05234839848106</v>
+        <v>-82.15503126102107</v>
       </c>
       <c r="E81">
-        <v>81.13597949418241</v>
+        <v>82.15503126102107</v>
       </c>
       <c r="F81">
         <v>25.47329976652861</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>-0.7487102384104665</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-82.8335917360002</v>
+        <v>-82.14530242008594</v>
       </c>
       <c r="E82">
-        <v>81.33617125917927</v>
+        <v>82.14530242008594</v>
       </c>
       <c r="F82">
         <v>116.8626727910393</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-4.125319047925831</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-86.31621495013107</v>
+        <v>-82.2496901757473</v>
       </c>
       <c r="E83">
-        <v>78.06557685427941</v>
+        <v>82.2496901757473</v>
       </c>
       <c r="F83">
         <v>-40.2934351198553</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>2.401118660036656</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-79.78579655993478</v>
+        <v>-82.24848589925671</v>
       </c>
       <c r="E84">
-        <v>84.5880338800081</v>
+        <v>82.24848589925671</v>
       </c>
       <c r="F84">
         <v>17.26978333911546</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>-1.165661401470729</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-83.33909558680762</v>
+        <v>-82.2356720232174</v>
       </c>
       <c r="E85">
-        <v>81.00777278386616</v>
+        <v>82.2356720232174</v>
       </c>
       <c r="F85">
         <v>0.5932179541645155</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.2249645486141274</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-81.93308985461803</v>
+        <v>-82.22025639895328</v>
       </c>
       <c r="E86">
-        <v>82.38301895184628</v>
+        <v>82.22025639895328</v>
       </c>
       <c r="F86">
         <v>-57.04599698247961</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>2.103078599782423</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-80.06831834817292</v>
+        <v>-82.2333417103077</v>
       </c>
       <c r="E87">
-        <v>84.27447554773777</v>
+        <v>82.2333417103077</v>
       </c>
       <c r="F87">
         <v>-31.83200847031458</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.7501061034776972</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-81.41597513408367</v>
+        <v>-82.22680393411403</v>
       </c>
       <c r="E88">
-        <v>82.91618734103905</v>
+        <v>82.22680393411403</v>
       </c>
       <c r="F88">
         <v>-32.90253350272536</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>1.061448533708803</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-81.09915602361949</v>
+        <v>-82.22087688573197</v>
       </c>
       <c r="E89">
-        <v>83.22205309103708</v>
+        <v>82.22087688573197</v>
       </c>
       <c r="F89">
         <v>35.98245050668112</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-1.566894483463985</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-83.72279026171492</v>
+        <v>-82.21680958428142</v>
       </c>
       <c r="E90">
-        <v>80.58900129478695</v>
+        <v>82.21680958428142</v>
       </c>
       <c r="F90">
         <v>7.375071646288234</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.0590177667271703</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-82.08220309164</v>
+        <v>-82.20189892357169</v>
       </c>
       <c r="E91">
-        <v>82.20023862509433</v>
+        <v>82.20189892357169</v>
       </c>
       <c r="F91">
         <v>-54.01144627739285</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>2.002040391824568</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-80.14938873116799</v>
+        <v>-82.21202388701943</v>
       </c>
       <c r="E92">
-        <v>84.15346951481712</v>
+        <v>82.21202388701943</v>
       </c>
       <c r="F92">
         <v>13.77807737066234</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.9314541007185766</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-83.06873292962167</v>
+        <v>-82.19830894300223</v>
       </c>
       <c r="E93">
-        <v>81.20582472818451</v>
+        <v>82.19830894300223</v>
       </c>
       <c r="F93">
         <v>-28.9033220761894</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>1.28046236727917</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-80.84830037281303</v>
+        <v>-82.19024216123535</v>
       </c>
       <c r="E94">
-        <v>83.40922510737137</v>
+        <v>82.19024216123535</v>
       </c>
       <c r="F94">
         <v>7.575043557083916</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>-0.5537790204345721</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-82.66754074218457</v>
+        <v>-82.17538502220108</v>
       </c>
       <c r="E95">
-        <v>81.55998270131542</v>
+        <v>82.17538502220108</v>
       </c>
       <c r="F95">
         <v>49.25673309251835</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>-1.730894313854723</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-83.85099759635806</v>
+        <v>-82.18122115016163</v>
       </c>
       <c r="E96">
-        <v>80.38920896864862</v>
+        <v>82.18122115016163</v>
       </c>
       <c r="F96">
         <v>22.71275813324962</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.4876090929931483</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-82.59759462868065</v>
+        <v>-82.17037901165671</v>
       </c>
       <c r="E97">
-        <v>81.62237644269435</v>
+        <v>82.17037901165671</v>
       </c>
       <c r="F97">
         <v>32.75252040061361</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>-1.113252869276184</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-83.21755866437051</v>
+        <v>-82.16440294430633</v>
       </c>
       <c r="E98">
-        <v>80.99105292581815</v>
+        <v>82.16440294430633</v>
       </c>
       <c r="F98">
         <v>-19.35280772241725</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.954174266291083</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-81.13771627369813</v>
+        <v>-82.15233989777175</v>
       </c>
       <c r="E99">
-        <v>83.04606480628028</v>
+        <v>82.15233989777175</v>
       </c>
       <c r="F99">
         <v>25.36748497219747</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-1.148428954181569</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-83.23020916471745</v>
+        <v>-82.14263014478479</v>
       </c>
       <c r="E100">
-        <v>80.93335125635431</v>
+        <v>82.14263014478479</v>
       </c>
       <c r="F100">
         <v>59.30240128325295</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>-1.952939166275877</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-84.0512943008772</v>
+        <v>-82.15797694039895</v>
       </c>
       <c r="E101">
-        <v>80.14541596832544</v>
+        <v>82.15797694039895</v>
       </c>
       <c r="F101">
         <v>-14.09470897413883</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.9300793247546126</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-81.15425970973239</v>
+        <v>-82.14439608336325</v>
       </c>
       <c r="E102">
-        <v>83.01441835924162</v>
+        <v>82.14439608336325</v>
       </c>
       <c r="F102">
         <v>-5.307696853336097</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.004132524073044541</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-82.06525295775897</v>
+        <v>-82.12933752933461</v>
       </c>
       <c r="E103">
-        <v>82.07351800590506</v>
+        <v>82.12933752933461</v>
       </c>
       <c r="F103">
         <v>8.251171879936692</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.3068731912951057</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-82.36156764915842</v>
+        <v>-82.11463513153558</v>
       </c>
       <c r="E104">
-        <v>81.7478212665682</v>
+        <v>82.11463513153558</v>
       </c>
       <c r="F104">
         <v>73.53867802718668</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-2.652099018720067</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-84.73903590187368</v>
+        <v>-82.14643964477354</v>
       </c>
       <c r="E105">
-        <v>79.43483786443355</v>
+        <v>82.14643964477354</v>
       </c>
       <c r="F105">
         <v>-2.851604196585811</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.657240739222317</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-81.41442021199683</v>
+        <v>-82.13122309568558</v>
       </c>
       <c r="E106">
-        <v>82.72890169044146</v>
+        <v>82.13122309568558</v>
       </c>
       <c r="F106">
         <v>-8.575868965934319</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.1807156973558504</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-81.87642004420381</v>
+        <v>-82.11658428928227</v>
       </c>
       <c r="E107">
-        <v>82.23785143891551</v>
+        <v>82.11658428928227</v>
       </c>
       <c r="F107">
         <v>6.863225405618323</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.2909767697266397</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-82.33324233334585</v>
+        <v>-82.1017237109394</v>
       </c>
       <c r="E108">
-        <v>81.75128879389257</v>
+        <v>82.1017237109394</v>
       </c>
       <c r="F108">
         <v>-15.47086958727277</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.631738350971494</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-81.3972821488895</v>
+        <v>-82.08854375639226</v>
       </c>
       <c r="E109">
-        <v>82.66075885083248</v>
+        <v>82.08854375639226</v>
       </c>
       <c r="F109">
         <v>26.29635895289653</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-1.103975653205425</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-83.12348505517797</v>
+        <v>-82.07930361799012</v>
       </c>
       <c r="E110">
-        <v>80.91553374876712</v>
+        <v>82.07930361799012</v>
       </c>
       <c r="F110">
         <v>0.5683684219746965</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.2078211607935393</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-81.79647726766687</v>
+        <v>-82.06405996917628</v>
       </c>
       <c r="E111">
-        <v>82.21211958925396</v>
+        <v>82.06405996917628</v>
       </c>
       <c r="F111">
         <v>1.136320161292304</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.0853148580780223</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-82.0743938500475</v>
+        <v>-82.04883322884736</v>
       </c>
       <c r="E112">
-        <v>81.90376413389146</v>
+        <v>82.04883322884736</v>
       </c>
       <c r="F112">
         <v>32.71409497141207</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-1.193953739489336</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-83.17717155202179</v>
+        <v>-82.04290492511673</v>
       </c>
       <c r="E113">
-        <v>80.78926407304313</v>
+        <v>82.04290492511673</v>
       </c>
       <c r="F113">
         <v>-12.91784724157168</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>0.7252933113401383</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-81.24390749380935</v>
+        <v>-82.02913209915887</v>
       </c>
       <c r="E114">
-        <v>82.69449411648962</v>
+        <v>82.02913209915887</v>
       </c>
       <c r="F114">
         <v>5.625267253830657</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.3583334026623033</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-82.31253931377222</v>
+        <v>-82.014192461071</v>
       </c>
       <c r="E115">
-        <v>81.59587250844763</v>
+        <v>82.014192461071</v>
       </c>
       <c r="F115">
         <v>-22.01588285026901</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.8912470087560731</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-81.05183992028653</v>
+        <v>-82.00319606938218</v>
       </c>
       <c r="E116">
-        <v>82.83433393779866</v>
+        <v>82.00319606938218</v>
       </c>
       <c r="F116">
         <v>1.134103149819055</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.2271597718079059</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-82.15505990641967</v>
+        <v>-81.98800879533712</v>
       </c>
       <c r="E117">
-        <v>81.70074036280386</v>
+        <v>81.98800879533712</v>
       </c>
       <c r="F117">
         <v>-51.01110068748795</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>1.941469427297511</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-79.99365400900064</v>
+        <v>-81.99540685912294</v>
       </c>
       <c r="E118">
-        <v>83.87659286359565</v>
+        <v>81.99540685912294</v>
       </c>
       <c r="F118">
         <v>41.92274845070472</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-1.985543598295139</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-83.91936260940587</v>
+        <v>-81.99547106761209</v>
       </c>
       <c r="E119">
-        <v>79.94827541281559</v>
+        <v>81.99547106761209</v>
       </c>
       <c r="F119">
         <v>-43.66190004940336</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>2.085994057781157</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-79.84772054313055</v>
+        <v>-81.99682614232836</v>
       </c>
       <c r="E120">
-        <v>84.01970865869285</v>
+        <v>81.99682614232836</v>
       </c>
       <c r="F120">
         <v>-61.70705890332187</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>1.886320579441479</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-80.0675154722159</v>
+        <v>-82.01466266342541</v>
       </c>
       <c r="E121">
-        <v>83.84015663109885</v>
+        <v>82.01466266342541</v>
       </c>
       <c r="F121">
         <v>17.79891032669383</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-1.056740184175053</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-82.99760993360563</v>
+        <v>-82.00223560913729</v>
       </c>
       <c r="E122">
-        <v>80.88412956525552</v>
+        <v>82.00223560913729</v>
       </c>
       <c r="F122">
         <v>13.55379824959186</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.2918659921498588</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-82.21943345880058</v>
+        <v>-81.98866272289644</v>
       </c>
       <c r="E123">
-        <v>81.63570147450088</v>
+        <v>81.98866272289644</v>
       </c>
       <c r="F123">
         <v>-25.99865386736866</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>1.035441064895847</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-80.8827097590399</v>
+        <v>-81.97936131033281</v>
       </c>
       <c r="E124">
-        <v>82.9535918888316</v>
+        <v>81.97936131033281</v>
       </c>
       <c r="F124">
         <v>13.03580299474731</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.6994397151845964</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-82.60370069814587</v>
+        <v>-81.96568384958357</v>
       </c>
       <c r="E125">
-        <v>81.20482126777668</v>
+        <v>81.96568384958357</v>
       </c>
       <c r="F125">
         <v>7.079634956846803</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>-0.1254435146920898</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-82.01509950495029</v>
+        <v>-81.95097684448282</v>
       </c>
       <c r="E126">
-        <v>81.7642124755661</v>
+        <v>81.95097684448282</v>
       </c>
       <c r="F126">
         <v>-24.87398577983413</v>
